--- a/jjselect/jj.xlsx
+++ b/jjselect/jj.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="混合债基" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="266">
   <si>
     <t>2021年01月09日</t>
   </si>
@@ -828,6 +828,139 @@
   <si>
     <t>跟踪误差</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票指数</t>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理人管理总量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪误差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近1年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金全名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上岗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>托管费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银河沪深300价值指数证券投资基金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>519671（前端）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票指数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009年12月28日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11年又183天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.85亿(12只基金)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>---</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申万菱信沪深300价值指数证券投资基金</t>
+  </si>
+  <si>
+    <t>龚丽丽</t>
+  </si>
+  <si>
+    <t>5年又252天</t>
+  </si>
+  <si>
+    <t>32.54亿(11只基金)</t>
+  </si>
+  <si>
+    <t>310398（前端）</t>
+  </si>
+  <si>
+    <t>2010年02月11日</t>
   </si>
 </sst>
 </file>
@@ -900,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,6 +1065,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1288,17 +1422,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:T117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
+    <col min="1" max="1" width="51.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="6" customWidth="1"/>
     <col min="5" max="6" width="9" style="6"/>
     <col min="7" max="7" width="16.5" style="6" customWidth="1"/>
@@ -1307,13 +1441,198 @@
     <col min="20" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="6">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="J2" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="O2" s="7">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.34770000000000001</v>
+      </c>
+      <c r="S2" s="7">
+        <v>-2.47E-2</v>
+      </c>
+      <c r="T2" s="13">
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="J3" s="7">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1.4E-3</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0.2414</v>
+      </c>
+      <c r="O3" s="7">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0.25729999999999997</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>-0.1469</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0.3629</v>
+      </c>
+      <c r="S3" s="7">
+        <v>-2.4299999999999999E-2</v>
+      </c>
+      <c r="T3" s="13">
+        <v>5.0500000000000003E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:T53">
     <sortCondition ref="I2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A118:A1048576">
+  <conditionalFormatting sqref="A115:A1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,7 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
